--- a/Multidrive.xlsx
+++ b/Multidrive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>IOC_Phase-2</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>2.Connect  to target machine and check the basic configuration</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>Basic configuration of source machine and target machine must be same</t>
   </si>
 </sst>
 </file>
@@ -226,9 +232,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -250,7 +253,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -260,12 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -575,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -589,504 +595,553 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" customWidth="1"/>
+    <col min="12" max="12" width="59.28515625" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
-    <col min="16" max="16" width="56.42578125" customWidth="1"/>
+    <col min="16" max="16" width="66" customWidth="1"/>
     <col min="17" max="17" width="44.5703125" customWidth="1"/>
     <col min="18" max="18" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1" s="11">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="12">
         <v>42877</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="13"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="3" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="13"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="12">
         <v>42877</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="13"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="13"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <v>42877</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="9" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="13"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="3" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="13"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="12">
         <v>42877</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="13"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="3" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="13"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>42877</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>37</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="12">
         <v>42877</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="8" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="14"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="14"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="12">
         <v>42877</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="3" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="13"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="13"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E12:E13"/>
@@ -1111,30 +1166,16 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="K5:K6"/>
@@ -1146,44 +1187,9 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Multidrive.xlsx
+++ b/Multidrive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>IOC_Phase-2</t>
   </si>
@@ -145,17 +145,32 @@
     <t>2.Connect  to target machine and check the basic configuration</t>
   </si>
   <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>Basic configuration of source machine and target machine must be same</t>
+    <t>IOTR-572</t>
+  </si>
+  <si>
+    <t>IOTR-573</t>
+  </si>
+  <si>
+    <t>IOTR-574</t>
+  </si>
+  <si>
+    <t>IOTR-575</t>
+  </si>
+  <si>
+    <t>IOTR-576</t>
+  </si>
+  <si>
+    <t>IOTR-577</t>
+  </si>
+  <si>
+    <t>IOTR-578</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -176,6 +191,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -229,15 +251,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -252,26 +289,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -581,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -602,498 +630,573 @@
     <col min="18" max="18" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11">
+    <row r="1" spans="1:21" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>42877</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="8"/>
+      <c r="U1" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="2" t="s">
+    <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>33</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>42877</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="8"/>
+      <c r="U3" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="3" t="s">
+    <row r="4" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    <row r="5" spans="1:21" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>42877</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="2" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="2" t="s">
+    <row r="6" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="8"/>
+      <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="7" spans="1:21" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>35</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>42877</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="2" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="2" t="s">
+    <row r="8" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="8"/>
+      <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:21" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="5">
         <v>42877</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+    <row r="10" spans="1:21" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>42877</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="9"/>
+      <c r="U10" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+    <row r="11" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>38</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>42877</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="2" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="2" t="s">
+    <row r="13" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="8"/>
+      <c r="U13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
@@ -1118,78 +1221,17 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
